--- a/5. Clarify the definition of the system/5.3.2. Структура прецедентов.xlsx
+++ b/5. Clarify the definition of the system/5.3.2. Структура прецедентов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>Название</t>
   </si>
@@ -319,6 +319,51 @@
   </si>
   <si>
     <t>Основной поток начинается тогда, когда произошло внедрение системы в парковочную службу.</t>
+  </si>
+  <si>
+    <t>Авторизация пользователей</t>
+  </si>
+  <si>
+    <t>Регистрация пользователей</t>
+  </si>
+  <si>
+    <t>Изменения данных о себе в личном кабинете</t>
+  </si>
+  <si>
+    <t>Клиент входит в систему</t>
+  </si>
+  <si>
+    <t>Клиент регистрируется в системе</t>
+  </si>
+  <si>
+    <t>Клиент изменяет свои персональные данные</t>
+  </si>
+  <si>
+    <t>Основной поток начинается, когда клиент открывает окно входа в аккаунт. Клиент заполняет все необходимые поля. При подтверждении входа нажатием на кнопку, система проводит верификацию информации и вход в систему.</t>
+  </si>
+  <si>
+    <t>В случае, если клиент не заполняет все необходимые поля или заполняет некорректно, система сообщает об ошибке.</t>
+  </si>
+  <si>
+    <t>Наличие уже зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Логин и пароль вводятся на английском</t>
+  </si>
+  <si>
+    <t>Пользователя с таким логином не существует</t>
+  </si>
+  <si>
+    <t>Добавление в базу данных клиентов нового пользователя</t>
+  </si>
+  <si>
+    <t>В случае, если клиент не заполняет все поля некорректно, система сообщает об ошибке.</t>
+  </si>
+  <si>
+    <t>Новая информация корректна для ввода</t>
+  </si>
+  <si>
+    <t>Новые данные сохраняются за этим пользователем</t>
   </si>
 </sst>
 </file>
@@ -378,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -413,7 +458,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,346 +817,415 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="187.5">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:8" ht="206.25">
+      <c r="B3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="187.5">
+      <c r="B4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="187.5">
+      <c r="B5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="187.5">
+      <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="150">
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="131.25">
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="131.25">
-      <c r="B6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="150">
       <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="131.25">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="131.25">
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="150">
+      <c r="B10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="168.75">
-      <c r="B8" s="8" t="s">
+    <row r="11" spans="2:8" ht="168.75">
+      <c r="B11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="168.75">
-      <c r="B9" s="8" t="s">
+    <row r="12" spans="2:8" ht="168.75">
+      <c r="B12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="168.75">
-      <c r="B10" s="7" t="s">
+    <row r="13" spans="2:8" ht="168.75">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="1.5" customHeight="1">
-      <c r="B11" s="7" t="s">
+    <row r="14" spans="2:8" ht="1.5" customHeight="1">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="96.75" customHeight="1">
-      <c r="B12" s="11" t="s">
+    <row r="15" spans="2:8" ht="96.75" customHeight="1">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="140.25" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" ht="112.5">
-      <c r="B14" s="7" t="s">
+    <row r="16" spans="2:8" ht="140.25" customHeight="1">
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="112.5">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="112.5">
-      <c r="B15" s="7" t="s">
+    <row r="18" spans="2:8" ht="112.5">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="93.75">
-      <c r="B16" s="7" t="s">
+    <row r="19" spans="2:8" ht="93.75">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="168.75">
-      <c r="B17" s="7" t="s">
+    <row r="20" spans="2:8" ht="168.75">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5. Clarify the definition of the system/5.3.2. Структура прецедентов.xlsx
+++ b/5. Clarify the definition of the system/5.3.2. Структура прецедентов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>Название</t>
   </si>
@@ -60,18 +60,6 @@
     <t>Бухгалтерия оценивает прибыль и расходы компании</t>
   </si>
   <si>
-    <t>Формирование персональных скидок</t>
-  </si>
-  <si>
-    <t>Бухгалтерия формирует скидки для постоянных клиентов</t>
-  </si>
-  <si>
-    <t>Формирование зарплат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бухгалтерия рассчитывает все зарплаты сотрудников с учетом штрафов и премий </t>
-  </si>
-  <si>
     <t>Для данного прецедента альтернативный поток отсутствует.</t>
   </si>
   <si>
@@ -102,15 +90,6 @@
     <t>В случае конфликтных ситуаций при оплате вызываются сотрудники милиции.</t>
   </si>
   <si>
-    <t>Основной поток начинается тогда, когда сумма денег, принесенная клиентом компании привысит установленный порог.</t>
-  </si>
-  <si>
-    <t>Основной поток начинается тогда, когда наступает установленная дата выплаты зароботной платы или аванса для конкретного отделения.</t>
-  </si>
-  <si>
-    <t>В случае экономических проблем происходит сокращение штата.</t>
-  </si>
-  <si>
     <t>Форма заполнения должна быть простой и понятной широкому кругу пользователей.</t>
   </si>
   <si>
@@ -177,15 +156,6 @@
     <t>Ведение отчетности в государственной валюте.</t>
   </si>
   <si>
-    <t>Наличие постоянных клиентов.</t>
-  </si>
-  <si>
-    <t>Ведение табельного учета.</t>
-  </si>
-  <si>
-    <t>Распределение бюджета.</t>
-  </si>
-  <si>
     <t>Альтернативный поток в данном прецеденте отсутствует.</t>
   </si>
   <si>
@@ -307,15 +277,6 @@
   </si>
   <si>
     <t>Основной поток начинается тогда, когда клиент оформляет жалобу о работе парковочной службы.  Правильно оформленная жалоба отправляется на рассмотрение администрации.</t>
-  </si>
-  <si>
-    <t>Предоставление скидки, зависящей от количества средств, потраченных клиентом на услуги компании.</t>
-  </si>
-  <si>
-    <t>Постоянный клиент характеризуется суммой денег потраченных на бронирование парковочных мест.</t>
-  </si>
-  <si>
-    <t>Наличие бюджета в  отделении парковочной службы.</t>
   </si>
   <si>
     <t>Основной поток начинается тогда, когда произошло внедрение системы в парковочную службу.</t>
@@ -458,13 +419,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>4</v>
@@ -819,117 +780,117 @@
     </row>
     <row r="3" spans="2:8" ht="206.25">
       <c r="B3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="168.75">
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="168.75">
+      <c r="B5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="187.5">
-      <c r="B4" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="187.5">
-      <c r="B5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="187.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="168.75">
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="150">
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="131.25">
@@ -937,114 +898,114 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="131.25">
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="150">
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="168.75">
       <c r="B11" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="168.75">
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="168.75">
@@ -1055,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="1.5" customHeight="1">
@@ -1078,143 +1039,97 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="96.75" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="140.25" customHeight="1">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" ht="93.75">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="96.75" customHeight="1">
-      <c r="B15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="140.25" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" ht="112.5">
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="H17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="168.75">
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="112.5">
-      <c r="B18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="93.75">
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="168.75">
-      <c r="B20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
